--- a/Code/Results/Cases/Case_0_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_251/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.44200600541742</v>
+        <v>13.62572784085251</v>
       </c>
       <c r="D2">
-        <v>5.302163593210805</v>
+        <v>8.862755317428544</v>
       </c>
       <c r="E2">
-        <v>9.058277617299449</v>
+        <v>14.33113577209349</v>
       </c>
       <c r="F2">
-        <v>32.21316004948919</v>
+        <v>37.46470187668112</v>
       </c>
       <c r="G2">
-        <v>43.80131459912855</v>
+        <v>42.83247596206252</v>
       </c>
       <c r="H2">
-        <v>12.40763325983292</v>
+        <v>17.26068741337965</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.219460977348401</v>
+        <v>10.70174230392237</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.414321791248701</v>
+        <v>9.757431744702821</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
-        <v>23.58573006642871</v>
+        <v>28.31248297128701</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.03945668880414</v>
+        <v>13.59124863422203</v>
       </c>
       <c r="D3">
-        <v>5.25073526469788</v>
+        <v>8.873921610170255</v>
       </c>
       <c r="E3">
-        <v>8.895016624686189</v>
+        <v>14.34229924205262</v>
       </c>
       <c r="F3">
-        <v>30.68291721625246</v>
+        <v>37.26013579872049</v>
       </c>
       <c r="G3">
-        <v>41.29152894667251</v>
+        <v>42.33423386470002</v>
       </c>
       <c r="H3">
-        <v>12.00030844645388</v>
+        <v>17.23884865881928</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.182425846335062</v>
+        <v>10.71951035084092</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.428125307863776</v>
+        <v>9.775400896148135</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
-        <v>22.51674678442874</v>
+        <v>28.18243555185087</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.791660634131645</v>
+        <v>13.57300577819324</v>
       </c>
       <c r="D4">
-        <v>5.221388355340034</v>
+        <v>8.881897797228048</v>
       </c>
       <c r="E4">
-        <v>8.798748371888408</v>
+        <v>14.35144590203818</v>
       </c>
       <c r="F4">
-        <v>29.72926528878309</v>
+        <v>37.14330426916217</v>
       </c>
       <c r="G4">
-        <v>39.70638722513656</v>
+        <v>42.03776962370898</v>
       </c>
       <c r="H4">
-        <v>11.75218366033123</v>
+        <v>17.22888948356952</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.162651452003754</v>
+        <v>10.73176849844094</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.438378606226531</v>
+        <v>9.787315083032775</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
-        <v>21.85274882137722</v>
+        <v>28.10908694031781</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.690655922661042</v>
+        <v>13.56631267829622</v>
       </c>
       <c r="D5">
-        <v>5.209986343063886</v>
+        <v>8.885430033877224</v>
       </c>
       <c r="E5">
-        <v>8.7605331881546</v>
+        <v>14.35574987205538</v>
       </c>
       <c r="F5">
-        <v>29.337597368454</v>
+        <v>37.09793849221111</v>
       </c>
       <c r="G5">
-        <v>39.04995474315947</v>
+        <v>41.91947647281248</v>
       </c>
       <c r="H5">
-        <v>11.65168182296696</v>
+        <v>17.2257013727123</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.155323858391331</v>
+        <v>10.73710307738097</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.442996644317974</v>
+        <v>9.792392179752509</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>21.58058979174568</v>
+        <v>28.08085364041378</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.673886740236155</v>
+        <v>13.56524617732769</v>
       </c>
       <c r="D6">
-        <v>5.208126572056845</v>
+        <v>8.88603358990474</v>
       </c>
       <c r="E6">
-        <v>8.754249306317776</v>
+        <v>14.35649937399993</v>
       </c>
       <c r="F6">
-        <v>29.27239313831809</v>
+        <v>37.09054211389126</v>
       </c>
       <c r="G6">
-        <v>38.94034315562686</v>
+        <v>41.89999007353464</v>
       </c>
       <c r="H6">
-        <v>11.63503397686856</v>
+        <v>17.22522462595809</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.154150800513312</v>
+        <v>10.73800937736525</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.443789816596375</v>
+        <v>9.793248646511472</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>21.53531401887554</v>
+        <v>28.076266192773</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.790298368832946</v>
+        <v>13.57291250648684</v>
       </c>
       <c r="D7">
-        <v>5.221232333590836</v>
+        <v>8.881944292612792</v>
       </c>
       <c r="E7">
-        <v>8.798228859849672</v>
+        <v>14.35150161192658</v>
       </c>
       <c r="F7">
-        <v>29.72399474560676</v>
+        <v>37.14268331700409</v>
       </c>
       <c r="G7">
-        <v>39.69757582480999</v>
+        <v>42.0361639031463</v>
       </c>
       <c r="H7">
-        <v>11.7508256260164</v>
+        <v>17.22884296042277</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.162549691256547</v>
+        <v>10.73183906845057</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.438439115676641</v>
+        <v>9.787382655234515</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767602</v>
       </c>
       <c r="O7">
-        <v>21.84908426917973</v>
+        <v>28.10869944022903</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.30341260651434</v>
+        <v>13.61323493729686</v>
       </c>
       <c r="D8">
-        <v>5.283966137916648</v>
+        <v>8.866373138898705</v>
       </c>
       <c r="E8">
-        <v>9.00116988383393</v>
+        <v>14.3345093573034</v>
       </c>
       <c r="F8">
-        <v>31.68872447563823</v>
+        <v>37.39237054819623</v>
       </c>
       <c r="G8">
-        <v>42.94542421052812</v>
+        <v>42.65880465962591</v>
       </c>
       <c r="H8">
-        <v>12.26684384653305</v>
+        <v>17.25244325448834</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.206066835205846</v>
+        <v>10.70758896840152</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.418707734371343</v>
+        <v>9.763444897773967</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
-        <v>23.21892129072224</v>
+        <v>28.26630730001685</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.29960326946415</v>
+        <v>13.71529058171047</v>
       </c>
       <c r="D9">
-        <v>5.424831762202112</v>
+        <v>8.844714389750035</v>
       </c>
       <c r="E9">
-        <v>9.429977806100434</v>
+        <v>14.31936133740966</v>
       </c>
       <c r="F9">
-        <v>35.41242475208286</v>
+        <v>37.94978392962692</v>
       </c>
       <c r="G9">
-        <v>48.94459097310212</v>
+        <v>43.94845170283357</v>
       </c>
       <c r="H9">
-        <v>13.28992743414708</v>
+        <v>17.32594814660332</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.315603039792775</v>
+        <v>10.67072554505185</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.394468882159057</v>
+        <v>9.723475175503433</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>25.83212658205004</v>
+        <v>28.62588138305023</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.01987807459305</v>
+        <v>13.80390930595297</v>
       </c>
       <c r="D10">
-        <v>5.539402048628169</v>
+        <v>8.834197609021146</v>
       </c>
       <c r="E10">
-        <v>9.762961202311057</v>
+        <v>14.31928596505052</v>
       </c>
       <c r="F10">
-        <v>38.05200816967427</v>
+        <v>38.39796505636185</v>
       </c>
       <c r="G10">
-        <v>53.10979255682056</v>
+        <v>44.92898426115371</v>
       </c>
       <c r="H10">
-        <v>14.04335559915625</v>
+        <v>17.39631425799098</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.411767893383921</v>
+        <v>10.65014734746823</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.385983561292801</v>
+        <v>9.698334533188332</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>27.69482688852071</v>
+        <v>28.91926276991264</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.3442205620135</v>
+        <v>13.84709189678716</v>
       </c>
       <c r="D11">
-        <v>5.593971880627871</v>
+        <v>8.830581042242571</v>
       </c>
       <c r="E11">
-        <v>9.918194694137043</v>
+        <v>14.32164344846591</v>
       </c>
       <c r="F11">
-        <v>39.22981632176464</v>
+        <v>38.6096184240628</v>
       </c>
       <c r="G11">
-        <v>54.95084972131572</v>
+        <v>45.38031206323659</v>
       </c>
       <c r="H11">
-        <v>14.38574026381184</v>
+        <v>17.43181581195757</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.459131948429335</v>
+        <v>10.64219537716486</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.384269087898237</v>
+        <v>9.687809496925762</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>28.52820565053148</v>
+        <v>29.05869084702697</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.46652090672746</v>
+        <v>13.86384765265519</v>
       </c>
       <c r="D12">
-        <v>5.614992395810855</v>
+        <v>8.829379038811584</v>
       </c>
       <c r="E12">
-        <v>9.97750968698217</v>
+        <v>14.32287906416171</v>
       </c>
       <c r="F12">
-        <v>39.67244069631396</v>
+        <v>38.69082727827901</v>
       </c>
       <c r="G12">
-        <v>55.64032182090729</v>
+        <v>45.55181696055553</v>
       </c>
       <c r="H12">
-        <v>14.51530130303741</v>
+        <v>17.44575508117021</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.477605864577726</v>
+        <v>10.63938650960049</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.383939282378641</v>
+        <v>9.683954600181984</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>28.84171073771491</v>
+        <v>29.11231200333785</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.44020502806091</v>
+        <v>13.86022121028739</v>
       </c>
       <c r="D13">
-        <v>5.610449347312603</v>
+        <v>8.829630468129295</v>
       </c>
       <c r="E13">
-        <v>9.964711598100195</v>
+        <v>14.32259772063719</v>
       </c>
       <c r="F13">
-        <v>39.57726482599366</v>
+        <v>38.6732912775461</v>
       </c>
       <c r="G13">
-        <v>55.49217250416518</v>
+        <v>45.51485633245201</v>
       </c>
       <c r="H13">
-        <v>14.4874025980795</v>
+        <v>17.44273107786221</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.473602942005929</v>
+        <v>10.63998245347801</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.383995922886959</v>
+        <v>9.684779013964178</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>28.7742847445687</v>
+        <v>29.10072771395259</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.35429291822716</v>
+        <v>13.84846237205802</v>
       </c>
       <c r="D14">
-        <v>5.595694090525733</v>
+        <v>8.830478797838275</v>
       </c>
       <c r="E14">
-        <v>9.923063958015724</v>
+        <v>14.32173823792006</v>
       </c>
       <c r="F14">
-        <v>39.26629939629625</v>
+        <v>38.61627861159151</v>
       </c>
       <c r="G14">
-        <v>55.00772675212293</v>
+        <v>45.39441083596279</v>
       </c>
       <c r="H14">
-        <v>14.39640135678565</v>
+        <v>17.43295271075696</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.460640915762061</v>
+        <v>10.64196023573319</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.384235487426739</v>
+        <v>9.687489734858826</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>28.55403974618515</v>
+        <v>29.06308601017968</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.30160039941543</v>
+        <v>13.8413120015017</v>
       </c>
       <c r="D15">
-        <v>5.586702566262084</v>
+        <v>8.831020227254879</v>
       </c>
       <c r="E15">
-        <v>9.897622598801332</v>
+        <v>14.32125640013918</v>
       </c>
       <c r="F15">
-        <v>39.07538179447306</v>
+        <v>38.58149305073947</v>
       </c>
       <c r="G15">
-        <v>54.70998991468571</v>
+        <v>45.32070743187435</v>
       </c>
       <c r="H15">
-        <v>14.34064748964304</v>
+        <v>17.42702751753759</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.452771939269565</v>
+        <v>10.64319803084872</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.384424164042287</v>
+        <v>9.689167140311888</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>28.41886163489961</v>
+        <v>29.04013545344801</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.99861061184574</v>
+        <v>13.8011441929024</v>
       </c>
       <c r="D16">
-        <v>5.535885398849412</v>
+        <v>8.834457422765899</v>
       </c>
       <c r="E16">
-        <v>9.752891079600044</v>
+        <v>14.319179940967</v>
       </c>
       <c r="F16">
-        <v>37.97456486373361</v>
+        <v>38.38428456588802</v>
       </c>
       <c r="G16">
-        <v>52.98839444879644</v>
+        <v>44.8995812495741</v>
       </c>
       <c r="H16">
-        <v>14.02096884797145</v>
+        <v>17.39406386747884</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.408746849542996</v>
+        <v>10.65069536131443</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.386139693740057</v>
+        <v>9.699040679950887</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>27.64007547973868</v>
+        <v>28.91026791198713</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.81184981937826</v>
+        <v>13.77723115553604</v>
       </c>
       <c r="D17">
-        <v>5.505340878539774</v>
+        <v>8.836864812886526</v>
       </c>
       <c r="E17">
-        <v>9.665057705300512</v>
+        <v>14.31851799987657</v>
       </c>
       <c r="F17">
-        <v>37.29328752867153</v>
+        <v>38.26525429078887</v>
       </c>
       <c r="G17">
-        <v>51.91848296403565</v>
+        <v>44.64247014623312</v>
       </c>
       <c r="H17">
-        <v>13.82473024311431</v>
+        <v>17.37473160250478</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.382677945585467</v>
+        <v>10.65565547018049</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.387749149539239</v>
+        <v>9.705330983097408</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>27.15867206918445</v>
+        <v>28.83210214360583</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.70411951336527</v>
+        <v>13.76374768952227</v>
       </c>
       <c r="D18">
-        <v>5.488002949218631</v>
+        <v>8.838359402522137</v>
       </c>
       <c r="E18">
-        <v>9.614892258087139</v>
+        <v>14.31836246696413</v>
       </c>
       <c r="F18">
-        <v>36.89927508883958</v>
+        <v>38.19752649068086</v>
       </c>
       <c r="G18">
-        <v>51.29803441858339</v>
+        <v>44.49509314438173</v>
       </c>
       <c r="H18">
-        <v>13.7118270764843</v>
+        <v>17.36394127360019</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.368023232423973</v>
+        <v>10.65864104749173</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.388876117010754</v>
+        <v>9.709034822654257</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>26.8804671935653</v>
+        <v>28.78770716343064</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.6675922240245</v>
+        <v>13.75922917870536</v>
       </c>
       <c r="D19">
-        <v>5.482172109640113</v>
+        <v>8.83888433523278</v>
       </c>
       <c r="E19">
-        <v>9.597968240011404</v>
+        <v>14.31834851326144</v>
       </c>
       <c r="F19">
-        <v>36.76550207451031</v>
+        <v>38.17472302161086</v>
       </c>
       <c r="G19">
-        <v>51.08709223181105</v>
+        <v>44.44528578053139</v>
       </c>
       <c r="H19">
-        <v>13.67359609812293</v>
+        <v>17.36034456122519</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.363119170126979</v>
+        <v>10.65967470367349</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.389291934568825</v>
+        <v>9.710303630839036</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>26.78604896259044</v>
+        <v>28.77277368737888</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.83176333505636</v>
+        <v>13.77974878931552</v>
       </c>
       <c r="D20">
-        <v>5.508568518261701</v>
+        <v>8.836597168198232</v>
       </c>
       <c r="E20">
-        <v>9.674371160465952</v>
+        <v>14.31856516455195</v>
       </c>
       <c r="F20">
-        <v>37.3660350322424</v>
+        <v>38.27784957978086</v>
       </c>
       <c r="G20">
-        <v>52.03290105174819</v>
+        <v>44.66978882063518</v>
       </c>
       <c r="H20">
-        <v>13.8456238419016</v>
+        <v>17.37675554200244</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.385417769417918</v>
+        <v>10.65511373079685</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.387556915072103</v>
+        <v>9.704652489920084</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484619</v>
       </c>
       <c r="O20">
-        <v>27.21005496975102</v>
+        <v>28.84036491251916</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.37954179354091</v>
+        <v>13.85190535474531</v>
       </c>
       <c r="D21">
-        <v>5.600018369598835</v>
+        <v>8.830225079856596</v>
       </c>
       <c r="E21">
-        <v>9.935282504379432</v>
+        <v>14.32198139212292</v>
       </c>
       <c r="F21">
-        <v>39.3577297095579</v>
+        <v>38.63299630516158</v>
       </c>
       <c r="G21">
-        <v>55.15022839242312</v>
+        <v>45.429773684286</v>
       </c>
       <c r="H21">
-        <v>14.42313338012284</v>
+        <v>17.43581145843775</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.464433422220351</v>
+        <v>10.64137382309127</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.384156361383854</v>
+        <v>9.686689986092576</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554066</v>
       </c>
       <c r="O21">
-        <v>28.61878771164456</v>
+        <v>29.07412025053724</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.73450171980908</v>
+        <v>13.90141074261689</v>
       </c>
       <c r="D22">
-        <v>5.661864128917824</v>
+        <v>8.827036734604075</v>
       </c>
       <c r="E22">
-        <v>10.1089001819832</v>
+        <v>14.3262121026306</v>
       </c>
       <c r="F22">
-        <v>40.63969084771697</v>
+        <v>38.87125753551921</v>
       </c>
       <c r="G22">
-        <v>57.14280196234022</v>
+        <v>45.92987274775883</v>
       </c>
       <c r="H22">
-        <v>14.80002367234216</v>
+        <v>17.4772932284888</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.519220928069945</v>
+        <v>10.63357343013874</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.383801441176652</v>
+        <v>9.675712132454317</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>29.52737166985461</v>
+        <v>29.23167117122071</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.5453414502431</v>
+        <v>13.87477723634465</v>
       </c>
       <c r="D23">
-        <v>5.628664317876073</v>
+        <v>8.828649230142597</v>
       </c>
       <c r="E23">
-        <v>10.01595546836519</v>
+        <v>14.32377166416428</v>
       </c>
       <c r="F23">
-        <v>39.95729915911585</v>
+        <v>38.74354959853643</v>
       </c>
       <c r="G23">
-        <v>56.08339154909131</v>
+        <v>45.66270203397093</v>
       </c>
       <c r="H23">
-        <v>14.59892902639872</v>
+        <v>17.45489191910592</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.489685663205839</v>
+        <v>10.63762882299493</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.383816168939302</v>
+        <v>9.681501649785304</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110912573</v>
       </c>
       <c r="O23">
-        <v>29.04356026527751</v>
+        <v>29.14715812794686</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.8227615493353</v>
+        <v>13.77860974266206</v>
       </c>
       <c r="D24">
-        <v>5.50710860949604</v>
+        <v>8.836717825994862</v>
       </c>
       <c r="E24">
-        <v>9.670159515246581</v>
+        <v>14.31854314040878</v>
       </c>
       <c r="F24">
-        <v>37.33315315784865</v>
+        <v>38.27215305146716</v>
       </c>
       <c r="G24">
-        <v>51.98118927494848</v>
+        <v>44.65743666625374</v>
       </c>
       <c r="H24">
-        <v>13.83617810094351</v>
+        <v>17.37583950907096</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.384178060277108</v>
+        <v>10.65535823393436</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.387643196932611</v>
+        <v>9.704958964230631</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188672</v>
       </c>
       <c r="O24">
-        <v>27.18682923879238</v>
+        <v>28.83662761886639</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.03181545060182</v>
+        <v>13.68525697606356</v>
       </c>
       <c r="D25">
-        <v>5.384792424687438</v>
+        <v>8.849624834287869</v>
       </c>
       <c r="E25">
-        <v>9.310765339779357</v>
+        <v>14.32151563862589</v>
       </c>
       <c r="F25">
-        <v>34.42099429569058</v>
+        <v>37.79199649423815</v>
       </c>
       <c r="G25">
-        <v>47.36346315429327</v>
+        <v>43.59311989568475</v>
       </c>
       <c r="H25">
-        <v>13.01253443825743</v>
+        <v>17.30317030201022</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.283283996564437</v>
+        <v>10.67955469390841</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.399427796186368</v>
+        <v>9.733544246812025</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529495</v>
       </c>
       <c r="O25">
-        <v>25.13451963954704</v>
+        <v>28.52335573645843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_251/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.62572784085251</v>
+        <v>10.44200600541748</v>
       </c>
       <c r="D2">
-        <v>8.862755317428544</v>
+        <v>5.302163593210697</v>
       </c>
       <c r="E2">
-        <v>14.33113577209349</v>
+        <v>9.058277617299453</v>
       </c>
       <c r="F2">
-        <v>37.46470187668112</v>
+        <v>32.21316004948923</v>
       </c>
       <c r="G2">
-        <v>42.83247596206252</v>
+        <v>43.80131459912858</v>
       </c>
       <c r="H2">
-        <v>17.26068741337965</v>
+        <v>12.40763325983296</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.70174230392237</v>
+        <v>6.219460977348432</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.757431744702821</v>
+        <v>5.414321791248588</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>28.31248297128701</v>
+        <v>23.58573006642876</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.59124863422203</v>
+        <v>10.03945668880412</v>
       </c>
       <c r="D3">
-        <v>8.873921610170255</v>
+        <v>5.250735264697724</v>
       </c>
       <c r="E3">
-        <v>14.34229924205262</v>
+        <v>8.895016624686084</v>
       </c>
       <c r="F3">
-        <v>37.26013579872049</v>
+        <v>30.68291721625239</v>
       </c>
       <c r="G3">
-        <v>42.33423386470002</v>
+        <v>41.2915289466725</v>
       </c>
       <c r="H3">
-        <v>17.23884865881928</v>
+        <v>12.00030844645387</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.71951035084092</v>
+        <v>6.182425846335077</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.775400896148135</v>
+        <v>5.428125307863683</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>28.18243555185087</v>
+        <v>22.51674678442872</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.57300577819324</v>
+        <v>9.791660634131707</v>
       </c>
       <c r="D4">
-        <v>8.881897797228048</v>
+        <v>5.221388355339974</v>
       </c>
       <c r="E4">
-        <v>14.35144590203818</v>
+        <v>8.798748371888507</v>
       </c>
       <c r="F4">
-        <v>37.14330426916217</v>
+        <v>29.72926528878327</v>
       </c>
       <c r="G4">
-        <v>42.03776962370898</v>
+        <v>39.70638722513672</v>
       </c>
       <c r="H4">
-        <v>17.22888948356952</v>
+        <v>11.75218366033133</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.73176849844094</v>
+        <v>6.162651452003839</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.787315083032775</v>
+        <v>5.438378606226597</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>28.10908694031781</v>
+        <v>21.85274882137732</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.56631267829622</v>
+        <v>9.690655922661099</v>
       </c>
       <c r="D5">
-        <v>8.885430033877224</v>
+        <v>5.209986343063992</v>
       </c>
       <c r="E5">
-        <v>14.35574987205538</v>
+        <v>8.760533188154639</v>
       </c>
       <c r="F5">
-        <v>37.09793849221111</v>
+        <v>29.33759736845393</v>
       </c>
       <c r="G5">
-        <v>41.91947647281248</v>
+        <v>39.04995474315942</v>
       </c>
       <c r="H5">
-        <v>17.2257013727123</v>
+        <v>11.65168182296695</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.73710307738097</v>
+        <v>6.155323858391301</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.792392179752509</v>
+        <v>5.442996644317976</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>28.08085364041378</v>
+        <v>21.58058979174563</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.56524617732769</v>
+        <v>9.67388674023622</v>
       </c>
       <c r="D6">
-        <v>8.88603358990474</v>
+        <v>5.20812657205685</v>
       </c>
       <c r="E6">
-        <v>14.35649937399993</v>
+        <v>8.754249306317822</v>
       </c>
       <c r="F6">
-        <v>37.09054211389126</v>
+        <v>29.2723931383182</v>
       </c>
       <c r="G6">
-        <v>41.89999007353464</v>
+        <v>38.94034315562696</v>
       </c>
       <c r="H6">
-        <v>17.22522462595809</v>
+        <v>11.6350339768686</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.73800937736525</v>
+        <v>6.154150800513394</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.793248646511472</v>
+        <v>5.443789816596344</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>28.076266192773</v>
+        <v>21.53531401887564</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.57291250648684</v>
+        <v>9.790298368832937</v>
       </c>
       <c r="D7">
-        <v>8.881944292612792</v>
+        <v>5.221232333590726</v>
       </c>
       <c r="E7">
-        <v>14.35150161192658</v>
+        <v>8.798228859849662</v>
       </c>
       <c r="F7">
-        <v>37.14268331700409</v>
+        <v>29.72399474560672</v>
       </c>
       <c r="G7">
-        <v>42.0361639031463</v>
+        <v>39.69757582480995</v>
       </c>
       <c r="H7">
-        <v>17.22884296042277</v>
+        <v>11.75082562601639</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.73183906845057</v>
+        <v>6.16254969125656</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.787382655234515</v>
+        <v>5.438439115676638</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767602</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>28.10869944022903</v>
+        <v>21.84908426917972</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.61323493729686</v>
+        <v>10.30341260651441</v>
       </c>
       <c r="D8">
-        <v>8.866373138898705</v>
+        <v>5.283966137916752</v>
       </c>
       <c r="E8">
-        <v>14.3345093573034</v>
+        <v>9.001169883833985</v>
       </c>
       <c r="F8">
-        <v>37.39237054819623</v>
+        <v>31.68872447563826</v>
       </c>
       <c r="G8">
-        <v>42.65880465962591</v>
+        <v>42.94542421052813</v>
       </c>
       <c r="H8">
-        <v>17.25244325448834</v>
+        <v>12.26684384653305</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.70758896840152</v>
+        <v>6.206066835205854</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.763444897773967</v>
+        <v>5.418707734371349</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>28.26630730001685</v>
+        <v>23.21892129072224</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.71529058171047</v>
+        <v>11.29960326946403</v>
       </c>
       <c r="D9">
-        <v>8.844714389750035</v>
+        <v>5.424831762202016</v>
       </c>
       <c r="E9">
-        <v>14.31936133740966</v>
+        <v>9.429977806100325</v>
       </c>
       <c r="F9">
-        <v>37.94978392962692</v>
+        <v>35.41242475208283</v>
       </c>
       <c r="G9">
-        <v>43.94845170283357</v>
+        <v>48.94459097310212</v>
       </c>
       <c r="H9">
-        <v>17.32594814660332</v>
+        <v>13.28992743414708</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.67072554505185</v>
+        <v>6.315603039792707</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.723475175503433</v>
+        <v>5.394468882158951</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>28.62588138305023</v>
+        <v>25.83212658205001</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.80390930595297</v>
+        <v>12.01987807459302</v>
       </c>
       <c r="D10">
-        <v>8.834197609021146</v>
+        <v>5.539402048628073</v>
       </c>
       <c r="E10">
-        <v>14.31928596505052</v>
+        <v>9.762961202311043</v>
       </c>
       <c r="F10">
-        <v>38.39796505636185</v>
+        <v>38.05200816967427</v>
       </c>
       <c r="G10">
-        <v>44.92898426115371</v>
+        <v>53.10979255682044</v>
       </c>
       <c r="H10">
-        <v>17.39631425799098</v>
+        <v>14.0433555991563</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.65014734746823</v>
+        <v>6.411767893383955</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.698334533188332</v>
+        <v>5.385983561292829</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>28.91926276991264</v>
+        <v>27.69482688852072</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.84709189678716</v>
+        <v>12.34422056201347</v>
       </c>
       <c r="D11">
-        <v>8.830581042242571</v>
+        <v>5.593971880627907</v>
       </c>
       <c r="E11">
-        <v>14.32164344846591</v>
+        <v>9.918194694137059</v>
       </c>
       <c r="F11">
-        <v>38.6096184240628</v>
+        <v>39.22981632176461</v>
       </c>
       <c r="G11">
-        <v>45.38031206323659</v>
+        <v>54.9508497213157</v>
       </c>
       <c r="H11">
-        <v>17.43181581195757</v>
+        <v>14.3857402638118</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.64219537716486</v>
+        <v>6.459131948429368</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.687809496925762</v>
+        <v>5.384269087898276</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>29.05869084702697</v>
+        <v>28.52820565053146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.86384765265519</v>
+        <v>12.46652090672748</v>
       </c>
       <c r="D12">
-        <v>8.829379038811584</v>
+        <v>5.614992395810801</v>
       </c>
       <c r="E12">
-        <v>14.32287906416171</v>
+        <v>9.977509686982179</v>
       </c>
       <c r="F12">
-        <v>38.69082727827901</v>
+        <v>39.67244069631396</v>
       </c>
       <c r="G12">
-        <v>45.55181696055553</v>
+        <v>55.64032182090723</v>
       </c>
       <c r="H12">
-        <v>17.44575508117021</v>
+        <v>14.51530130303746</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.63938650960049</v>
+        <v>6.477605864577737</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.683954600181984</v>
+        <v>5.383939282378587</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>29.11231200333785</v>
+        <v>28.84171073771492</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.86022121028739</v>
+        <v>12.44020502806092</v>
       </c>
       <c r="D13">
-        <v>8.829630468129295</v>
+        <v>5.610449347312609</v>
       </c>
       <c r="E13">
-        <v>14.32259772063719</v>
+        <v>9.964711598100239</v>
       </c>
       <c r="F13">
-        <v>38.6732912775461</v>
+        <v>39.57726482599366</v>
       </c>
       <c r="G13">
-        <v>45.51485633245201</v>
+        <v>55.49217250416518</v>
       </c>
       <c r="H13">
-        <v>17.44273107786221</v>
+        <v>14.48740259807953</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.63998245347801</v>
+        <v>6.473602942005953</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.684779013964178</v>
+        <v>5.383995922886909</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>29.10072771395259</v>
+        <v>28.77428474456869</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.84846237205802</v>
+        <v>12.35429291822718</v>
       </c>
       <c r="D14">
-        <v>8.830478797838275</v>
+        <v>5.595694090525724</v>
       </c>
       <c r="E14">
-        <v>14.32173823792006</v>
+        <v>9.923063958015719</v>
       </c>
       <c r="F14">
-        <v>38.61627861159151</v>
+        <v>39.26629939629623</v>
       </c>
       <c r="G14">
-        <v>45.39441083596279</v>
+        <v>55.00772675212286</v>
       </c>
       <c r="H14">
-        <v>17.43295271075696</v>
+        <v>14.39640135678567</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.64196023573319</v>
+        <v>6.46064091576206</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.687489734858826</v>
+        <v>5.384235487426714</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>29.06308601017968</v>
+        <v>28.55403974618516</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.8413120015017</v>
+        <v>12.30160039941543</v>
       </c>
       <c r="D15">
-        <v>8.831020227254879</v>
+        <v>5.586702566261947</v>
       </c>
       <c r="E15">
-        <v>14.32125640013918</v>
+        <v>9.897622598801314</v>
       </c>
       <c r="F15">
-        <v>38.58149305073947</v>
+        <v>39.07538179447306</v>
       </c>
       <c r="G15">
-        <v>45.32070743187435</v>
+        <v>54.70998991468572</v>
       </c>
       <c r="H15">
-        <v>17.42702751753759</v>
+        <v>14.34064748964304</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.64319803084872</v>
+        <v>6.452771939269613</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.689167140311888</v>
+        <v>5.384424164042253</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>29.04013545344801</v>
+        <v>28.41886163489961</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.8011441929024</v>
+        <v>11.99861061184578</v>
       </c>
       <c r="D16">
-        <v>8.834457422765899</v>
+        <v>5.535885398849222</v>
       </c>
       <c r="E16">
-        <v>14.319179940967</v>
+        <v>9.752891079600039</v>
       </c>
       <c r="F16">
-        <v>38.38428456588802</v>
+        <v>37.97456486373361</v>
       </c>
       <c r="G16">
-        <v>44.8995812495741</v>
+        <v>52.98839444879638</v>
       </c>
       <c r="H16">
-        <v>17.39406386747884</v>
+        <v>14.02096884797148</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.65069536131443</v>
+        <v>6.408746849543058</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.699040679950887</v>
+        <v>5.386139693740054</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>28.91026791198713</v>
+        <v>27.6400754797387</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.77723115553604</v>
+        <v>11.81184981937817</v>
       </c>
       <c r="D17">
-        <v>8.836864812886526</v>
+        <v>5.505340878539654</v>
       </c>
       <c r="E17">
-        <v>14.31851799987657</v>
+        <v>9.665057705300434</v>
       </c>
       <c r="F17">
-        <v>38.26525429078887</v>
+        <v>37.29328752867153</v>
       </c>
       <c r="G17">
-        <v>44.64247014623312</v>
+        <v>51.9184829640356</v>
       </c>
       <c r="H17">
-        <v>17.37473160250478</v>
+        <v>13.82473024311432</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.65565547018049</v>
+        <v>6.382677945585437</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.705330983097408</v>
+        <v>5.387749149539149</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>28.83210214360583</v>
+        <v>27.15867206918447</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.76374768952227</v>
+        <v>11.70411951336523</v>
       </c>
       <c r="D18">
-        <v>8.838359402522137</v>
+        <v>5.488002949218609</v>
       </c>
       <c r="E18">
-        <v>14.31836246696413</v>
+        <v>9.614892258087101</v>
       </c>
       <c r="F18">
-        <v>38.19752649068086</v>
+        <v>36.89927508883957</v>
       </c>
       <c r="G18">
-        <v>44.49509314438173</v>
+        <v>51.29803441858334</v>
       </c>
       <c r="H18">
-        <v>17.36394127360019</v>
+        <v>13.71182707648431</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.65864104749173</v>
+        <v>6.368023232423964</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.709034822654257</v>
+        <v>5.388876117010692</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>28.78770716343064</v>
+        <v>26.88046719356531</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.75922917870536</v>
+        <v>11.66759222402444</v>
       </c>
       <c r="D19">
-        <v>8.83888433523278</v>
+        <v>5.482172109640164</v>
       </c>
       <c r="E19">
-        <v>14.31834851326144</v>
+        <v>9.59796824001144</v>
       </c>
       <c r="F19">
-        <v>38.17472302161086</v>
+        <v>36.76550207451034</v>
       </c>
       <c r="G19">
-        <v>44.44528578053139</v>
+        <v>51.08709223181103</v>
       </c>
       <c r="H19">
-        <v>17.36034456122519</v>
+        <v>13.67359609812296</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.65967470367349</v>
+        <v>6.363119170127026</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.710303630839036</v>
+        <v>5.389291934568966</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>28.77277368737888</v>
+        <v>26.78604896259046</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.77974878931552</v>
+        <v>11.83176333505638</v>
       </c>
       <c r="D20">
-        <v>8.836597168198232</v>
+        <v>5.508568518261757</v>
       </c>
       <c r="E20">
-        <v>14.31856516455195</v>
+        <v>9.674371160466011</v>
       </c>
       <c r="F20">
-        <v>38.27784957978086</v>
+        <v>37.36603503224241</v>
       </c>
       <c r="G20">
-        <v>44.66978882063518</v>
+        <v>52.0329010517482</v>
       </c>
       <c r="H20">
-        <v>17.37675554200244</v>
+        <v>13.84562384190159</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.65511373079685</v>
+        <v>6.385417769417955</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.704652489920084</v>
+        <v>5.387556915072127</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484619</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>28.84036491251916</v>
+        <v>27.21005496975102</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.85190535474531</v>
+        <v>12.37954179354096</v>
       </c>
       <c r="D21">
-        <v>8.830225079856596</v>
+        <v>5.600018369598737</v>
       </c>
       <c r="E21">
-        <v>14.32198139212292</v>
+        <v>9.93528250437946</v>
       </c>
       <c r="F21">
-        <v>38.63299630516158</v>
+        <v>39.35772970955788</v>
       </c>
       <c r="G21">
-        <v>45.429773684286</v>
+        <v>55.15022839242306</v>
       </c>
       <c r="H21">
-        <v>17.43581145843775</v>
+        <v>14.42313338012284</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.64137382309127</v>
+        <v>6.464433422220417</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.686689986092576</v>
+        <v>5.384156361383823</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554066</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>29.07412025053724</v>
+        <v>28.61878771164456</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.90141074261689</v>
+        <v>12.73450171980911</v>
       </c>
       <c r="D22">
-        <v>8.827036734604075</v>
+        <v>5.661864128917782</v>
       </c>
       <c r="E22">
-        <v>14.3262121026306</v>
+        <v>10.10890018198326</v>
       </c>
       <c r="F22">
-        <v>38.87125753551921</v>
+        <v>40.63969084771698</v>
       </c>
       <c r="G22">
-        <v>45.92987274775883</v>
+        <v>57.14280196234023</v>
       </c>
       <c r="H22">
-        <v>17.4772932284888</v>
+        <v>14.80002367234217</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.63357343013874</v>
+        <v>6.51922092807003</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.675712132454317</v>
+        <v>5.383801441176679</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>29.23167117122071</v>
+        <v>29.52737166985461</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.87477723634465</v>
+        <v>12.54534145024318</v>
       </c>
       <c r="D23">
-        <v>8.828649230142597</v>
+        <v>5.628664317876073</v>
       </c>
       <c r="E23">
-        <v>14.32377166416428</v>
+        <v>10.01595546836522</v>
       </c>
       <c r="F23">
-        <v>38.74354959853643</v>
+        <v>39.95729915911588</v>
       </c>
       <c r="G23">
-        <v>45.66270203397093</v>
+        <v>56.08339154909137</v>
       </c>
       <c r="H23">
-        <v>17.45489191910592</v>
+        <v>14.59892902639874</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.63762882299493</v>
+        <v>6.489685663205859</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.681501649785304</v>
+        <v>5.383816168939305</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110912573</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>29.14715812794686</v>
+        <v>29.04356026527752</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.77860974266206</v>
+        <v>11.82276154933528</v>
       </c>
       <c r="D24">
-        <v>8.836717825994862</v>
+        <v>5.507108609495864</v>
       </c>
       <c r="E24">
-        <v>14.31854314040878</v>
+        <v>9.670159515246587</v>
       </c>
       <c r="F24">
-        <v>38.27215305146716</v>
+        <v>37.33315315784863</v>
       </c>
       <c r="G24">
-        <v>44.65743666625374</v>
+        <v>51.98118927494855</v>
       </c>
       <c r="H24">
-        <v>17.37583950907096</v>
+        <v>13.83617810094349</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.65535823393436</v>
+        <v>6.384178060277133</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.704958964230631</v>
+        <v>5.387643196932633</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188672</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>28.83662761886639</v>
+        <v>27.18682923879236</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.68525697606356</v>
+        <v>11.03181545060179</v>
       </c>
       <c r="D25">
-        <v>8.849624834287869</v>
+        <v>5.384792424687411</v>
       </c>
       <c r="E25">
-        <v>14.32151563862589</v>
+        <v>9.310765339779321</v>
       </c>
       <c r="F25">
-        <v>37.79199649423815</v>
+        <v>34.42099429569053</v>
       </c>
       <c r="G25">
-        <v>43.59311989568475</v>
+        <v>47.36346315429321</v>
       </c>
       <c r="H25">
-        <v>17.30317030201022</v>
+        <v>13.01253443825742</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.67955469390841</v>
+        <v>6.283283996564418</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.733544246812025</v>
+        <v>5.399427796186313</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529495</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>28.52335573645843</v>
+        <v>25.13451963954699</v>
       </c>
     </row>
   </sheetData>
